--- a/medicine/Enfance/Michio_Takeyama/Michio_Takeyama.xlsx
+++ b/medicine/Enfance/Michio_Takeyama/Michio_Takeyama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michio Takeyama (Takeyama Michio?), né le 17 juillet 1903 à Osaka et mort le 15 juin 1984 à Kamakura, est un écrivain, essayiste, critique littéraire, traducteur et professeur de littérature allemande de nationalité japonaise. Son roman La Harpe de Birmanie (Biruma no tategoto), paru en 1946, est un classique de la littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès l'enfance, Michio Takeyama - son père est employé d'une grande banque japonaise - vit loin de son pays natal. De 1907 à 1913, il habite à Gyeongseong, l'actuelle Séoul, en Corée, alors sous domination japonaise. Titulaire d'un diplôme de littérature allemande de l'Université impériale de Tokyo, le Ministère de l'Éducation lui offre la possibilité de poursuivre ses études, durant trois ans, à Paris puis à Berlin.
 Revenu dans son pays, en 1932, Michio Takeyama enseigne la langue et la littérature allemandes à Tokyo. Il traduit également des œuvres de Goethe, de Nietzsche, d'Ibsen et surtout d'Albert Schweitzer, dont les valeurs humanistes imprègnent ses propres écrits.
@@ -547,7 +561,9 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biruma no tategoto (1946) Publié en français sous le titre La Harpe de Birmanie, traduit par Hélène Morita, avec le concours de Yasuko Takeyama et du Japan Foreign Rights Center, Paris, éditions Le Serpent à Plumes, coll. « Fiction étrangère », 2002  (ISBN 2-84261-342-2) ; réédition, Paris, Le Serpent à Plumes, coll. « Motifs » no 269, 2006  (ISBN 2-268-05967-7)</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1956 : La Harpe de Birmanie (Biruma no tategoto), film japonais réalisé par Kon Ichikawa</t>
         </is>
